--- a/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
+++ b/resultados/Venda de Drone/Com SPAD 4 Drones/vel40/field_100ha_100ha_18%_12m_0_LM/Planilha_Unificada.xlsx
@@ -1552,28 +1552,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.03218515228639</v>
+        <v>86.14253441994383</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.2941017948199</v>
+        <v>117.8640159337233</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.62673488671247</v>
+        <v>106.6152396762247</v>
       </c>
       <c r="AD2" t="n">
-        <v>74032.18515228639</v>
+        <v>86142.53441994383</v>
       </c>
       <c r="AE2" t="n">
-        <v>101294.1017948199</v>
+        <v>117864.0159337233</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.092025558747211e-06</v>
+        <v>1.312210407830652e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.142708333333333</v>
       </c>
       <c r="AH2" t="n">
-        <v>91626.73488671247</v>
+        <v>106615.2396762247</v>
       </c>
     </row>
     <row r="3">
@@ -1658,28 +1658,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.9101227946159</v>
+        <v>85.02047206227334</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.75884657515842</v>
+        <v>116.3287607140617</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.2380022704707</v>
+        <v>105.2265070599829</v>
       </c>
       <c r="AD3" t="n">
-        <v>72910.12279461591</v>
+        <v>85020.47206227334</v>
       </c>
       <c r="AE3" t="n">
-        <v>99758.84657515842</v>
+        <v>116328.7607140617</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.20610718105643e-06</v>
+        <v>1.333318494779341e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.108333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90238.00227047071</v>
+        <v>105226.5070599829</v>
       </c>
     </row>
   </sheetData>
@@ -1955,28 +1955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.42444439693467</v>
+        <v>85.10290518363117</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.4625640817183</v>
+        <v>116.4415493473961</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.87455796587844</v>
+        <v>105.3285313044517</v>
       </c>
       <c r="AD2" t="n">
-        <v>73424.44439693468</v>
+        <v>85102.90518363117</v>
       </c>
       <c r="AE2" t="n">
-        <v>100462.5640817183</v>
+        <v>116441.5493473961</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.987986645056282e-06</v>
+        <v>1.332018101821777e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AH2" t="n">
-        <v>90874.55796587844</v>
+        <v>105328.5313044517</v>
       </c>
     </row>
   </sheetData>
@@ -2252,28 +2252,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>102.6720952157356</v>
+        <v>113.1356272154774</v>
       </c>
       <c r="AB2" t="n">
-        <v>140.4804902472699</v>
+        <v>154.7971563477619</v>
       </c>
       <c r="AC2" t="n">
-        <v>127.0732294237147</v>
+        <v>140.0235330051473</v>
       </c>
       <c r="AD2" t="n">
-        <v>102672.0952157356</v>
+        <v>113135.6272154774</v>
       </c>
       <c r="AE2" t="n">
-        <v>140480.4902472699</v>
+        <v>154797.1563477619</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.39973319060682e-06</v>
+        <v>1.150001856997228e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.248958333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>127073.2294237147</v>
+        <v>140023.5330051473</v>
       </c>
     </row>
   </sheetData>
@@ -2549,28 +2549,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>80.53238492805944</v>
+        <v>102.3906361658882</v>
       </c>
       <c r="AB2" t="n">
-        <v>110.1879618966032</v>
+        <v>140.095385558172</v>
       </c>
       <c r="AC2" t="n">
-        <v>99.67177746299538</v>
+        <v>126.7248785856463</v>
       </c>
       <c r="AD2" t="n">
-        <v>80532.38492805944</v>
+        <v>102390.6361658882</v>
       </c>
       <c r="AE2" t="n">
-        <v>110187.9618966032</v>
+        <v>140095.385558172</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.19358769219575e-06</v>
+        <v>1.257512433452551e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.709375</v>
       </c>
       <c r="AH2" t="n">
-        <v>99671.77746299538</v>
+        <v>126724.8785856463</v>
       </c>
     </row>
   </sheetData>
@@ -2846,28 +2846,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>121.0055728230931</v>
+        <v>150.9743560049299</v>
       </c>
       <c r="AB2" t="n">
-        <v>165.5651631255926</v>
+        <v>206.5697744043639</v>
       </c>
       <c r="AC2" t="n">
-        <v>149.7638563290977</v>
+        <v>186.8550450577695</v>
       </c>
       <c r="AD2" t="n">
-        <v>121005.5728230931</v>
+        <v>150974.3560049299</v>
       </c>
       <c r="AE2" t="n">
-        <v>165565.1631255926</v>
+        <v>206569.7744043639</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.572336315249863e-06</v>
+        <v>1.018169988685507e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.984375</v>
       </c>
       <c r="AH2" t="n">
-        <v>149763.8563290977</v>
+        <v>186855.0450577695</v>
       </c>
     </row>
   </sheetData>
@@ -3143,28 +3143,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.45744242948928</v>
+        <v>85.2494214110604</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.5077134456299</v>
+        <v>116.6420193136044</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.91539833786591</v>
+        <v>105.5098686984466</v>
       </c>
       <c r="AD2" t="n">
-        <v>73457.44242948928</v>
+        <v>85249.42141106039</v>
       </c>
       <c r="AE2" t="n">
-        <v>100507.7134456299</v>
+        <v>116642.0193136044</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.029905878314302e-06</v>
+        <v>1.329189062855474e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.216666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>90915.3983378659</v>
+        <v>105509.8686984466</v>
       </c>
     </row>
     <row r="3">
@@ -3249,28 +3249,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>73.2694354737811</v>
+        <v>85.06141445535221</v>
       </c>
       <c r="AB3" t="n">
-        <v>100.2504740345486</v>
+        <v>116.3847799025231</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.68270949514036</v>
+        <v>105.277179855721</v>
       </c>
       <c r="AD3" t="n">
-        <v>73269.43547378111</v>
+        <v>85061.41445535221</v>
       </c>
       <c r="AE3" t="n">
-        <v>100250.4740345486</v>
+        <v>116384.7799025231</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.063556819141056e-06</v>
+        <v>1.335551660488494e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.205208333333334</v>
       </c>
       <c r="AH3" t="n">
-        <v>90682.70949514036</v>
+        <v>105277.179855721</v>
       </c>
     </row>
   </sheetData>
@@ -3546,28 +3546,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>148.9317658667815</v>
+        <v>178.2451919666058</v>
       </c>
       <c r="AB2" t="n">
-        <v>203.7750124646336</v>
+        <v>243.8829352714819</v>
       </c>
       <c r="AC2" t="n">
-        <v>184.3270112750932</v>
+        <v>220.6070902210919</v>
       </c>
       <c r="AD2" t="n">
-        <v>148931.7658667815</v>
+        <v>178245.1919666058</v>
       </c>
       <c r="AE2" t="n">
-        <v>203775.0124646336</v>
+        <v>243882.9352714819</v>
       </c>
       <c r="AF2" t="n">
-        <v>4.022007130799745e-06</v>
+        <v>9.220719809031741e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>5</v>
+        <v>4.635416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>184327.0112750932</v>
+        <v>220607.0902210918</v>
       </c>
     </row>
   </sheetData>
@@ -3843,28 +3843,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>75.36390061236013</v>
+        <v>86.67393993299638</v>
       </c>
       <c r="AB2" t="n">
-        <v>103.1162136384315</v>
+        <v>118.5911084006381</v>
       </c>
       <c r="AC2" t="n">
-        <v>93.27494693332038</v>
+        <v>107.272939458578</v>
       </c>
       <c r="AD2" t="n">
-        <v>75363.90061236013</v>
+        <v>86673.93993299638</v>
       </c>
       <c r="AE2" t="n">
-        <v>103116.2136384316</v>
+        <v>118591.1084006381</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.702069335790709e-06</v>
+        <v>1.313596327599269e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.416666666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>93274.94693332037</v>
+        <v>107272.939458578</v>
       </c>
     </row>
   </sheetData>
@@ -4140,28 +4140,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.36667670582236</v>
+        <v>85.92730262580622</v>
       </c>
       <c r="AB2" t="n">
-        <v>101.7517678950935</v>
+        <v>117.5695262976277</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.04072197671445</v>
+        <v>106.3488557176792</v>
       </c>
       <c r="AD2" t="n">
-        <v>74366.67670582236</v>
+        <v>85927.30262580622</v>
       </c>
       <c r="AE2" t="n">
-        <v>101751.7678950935</v>
+        <v>117569.5262976277</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.869409875698071e-06</v>
+        <v>1.320783553429043e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.310416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92040.72197671446</v>
+        <v>106348.8557176792</v>
       </c>
     </row>
     <row r="3">
@@ -4246,28 +4246,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.25118673817994</v>
+        <v>85.81181265816377</v>
       </c>
       <c r="AB3" t="n">
-        <v>101.5937494263074</v>
+        <v>117.4115078288417</v>
       </c>
       <c r="AC3" t="n">
-        <v>91.89778456880897</v>
+        <v>106.2059183097737</v>
       </c>
       <c r="AD3" t="n">
-        <v>74251.18673817994</v>
+        <v>85811.81265816378</v>
       </c>
       <c r="AE3" t="n">
-        <v>101593.7494263074</v>
+        <v>117411.5078288417</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.897442065033366e-06</v>
+        <v>1.326173311109924e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.301041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>91897.78456880897</v>
+        <v>106205.9183097737</v>
       </c>
     </row>
   </sheetData>
@@ -4543,28 +4543,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.48110693792164</v>
+        <v>85.48871103127044</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.5400922700715</v>
+        <v>116.9694259286887</v>
       </c>
       <c r="AC2" t="n">
-        <v>90.94468697274674</v>
+        <v>105.8060280857053</v>
       </c>
       <c r="AD2" t="n">
-        <v>73481.10693792164</v>
+        <v>85488.71103127045</v>
       </c>
       <c r="AE2" t="n">
-        <v>100540.0922700715</v>
+        <v>116969.4259286887</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.105192478136329e-06</v>
+        <v>1.323643468332501e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.15625</v>
       </c>
       <c r="AH2" t="n">
-        <v>90944.68697274674</v>
+        <v>105806.0280857053</v>
       </c>
     </row>
     <row r="3">
@@ -4649,28 +4649,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.81679349634028</v>
+        <v>84.82439758968908</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.63114931185972</v>
+        <v>116.0604829704769</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.12249225475695</v>
+        <v>104.9838333677155</v>
       </c>
       <c r="AD3" t="n">
-        <v>72816.79349634028</v>
+        <v>84824.39758968909</v>
       </c>
       <c r="AE3" t="n">
-        <v>99631.14931185971</v>
+        <v>116060.4829704768</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.179305997093668e-06</v>
+        <v>1.337450254789713e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.133333333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90122.49225475694</v>
+        <v>104983.8333677155</v>
       </c>
     </row>
   </sheetData>
@@ -4946,28 +4946,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>78.3635098324001</v>
+        <v>89.56933417608062</v>
       </c>
       <c r="AB2" t="n">
-        <v>107.2204113067074</v>
+        <v>122.5527145398028</v>
       </c>
       <c r="AC2" t="n">
-        <v>96.98744573641487</v>
+        <v>110.8564554679713</v>
       </c>
       <c r="AD2" t="n">
-        <v>78363.5098324001</v>
+        <v>89569.33417608062</v>
       </c>
       <c r="AE2" t="n">
-        <v>107220.4113067074</v>
+        <v>122552.7145398028</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.387473663419973e-06</v>
+        <v>1.280367406322984e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.594791666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>96987.44573641487</v>
+        <v>110856.4554679713</v>
       </c>
     </row>
   </sheetData>
@@ -5243,28 +5243,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>97.82124321116476</v>
+        <v>108.4665817265877</v>
       </c>
       <c r="AB2" t="n">
-        <v>133.8433405301326</v>
+        <v>148.4087623261168</v>
       </c>
       <c r="AC2" t="n">
-        <v>121.0695199602807</v>
+        <v>134.2448383427587</v>
       </c>
       <c r="AD2" t="n">
-        <v>97821.24321116475</v>
+        <v>108466.5817265877</v>
       </c>
       <c r="AE2" t="n">
-        <v>133843.3405301326</v>
+        <v>148408.7623261168</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.704910785552281e-06</v>
+        <v>1.193503013661221e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.026041666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>121069.5199602807</v>
+        <v>134244.8383427587</v>
       </c>
     </row>
   </sheetData>
@@ -8361,28 +8361,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>109.948914772971</v>
+        <v>130.4796851787587</v>
       </c>
       <c r="AB2" t="n">
-        <v>150.4369557960961</v>
+        <v>178.5280616189461</v>
       </c>
       <c r="AC2" t="n">
-        <v>136.0794638745512</v>
+        <v>161.489593983792</v>
       </c>
       <c r="AD2" t="n">
-        <v>109948.914772971</v>
+        <v>130479.6851787587</v>
       </c>
       <c r="AE2" t="n">
-        <v>150436.9557960961</v>
+        <v>178528.0616189461</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.024458660276304e-06</v>
+        <v>1.092244844904873e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>4</v>
+        <v>3.554166666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>136079.4638745512</v>
+        <v>161489.593983792</v>
       </c>
     </row>
   </sheetData>
@@ -8658,28 +8658,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>191.0389259308281</v>
+        <v>219.5760579539493</v>
       </c>
       <c r="AB2" t="n">
-        <v>261.3878865010296</v>
+        <v>300.4336495044559</v>
       </c>
       <c r="AC2" t="n">
-        <v>236.4413934736505</v>
+        <v>271.7606836571148</v>
       </c>
       <c r="AD2" t="n">
-        <v>191038.9259308281</v>
+        <v>219576.0579539493</v>
       </c>
       <c r="AE2" t="n">
-        <v>261387.8865010297</v>
+        <v>300433.6495044559</v>
       </c>
       <c r="AF2" t="n">
-        <v>3.326373691256555e-06</v>
+        <v>7.911869515407468e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>6</v>
+        <v>5.761458333333334</v>
       </c>
       <c r="AH2" t="n">
-        <v>236441.3934736505</v>
+        <v>271760.6836571148</v>
       </c>
     </row>
   </sheetData>
@@ -8955,28 +8955,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>74.83955924274716</v>
+        <v>86.27756419788001</v>
       </c>
       <c r="AB2" t="n">
-        <v>102.3987866442188</v>
+        <v>118.0487696329888</v>
       </c>
       <c r="AC2" t="n">
-        <v>92.62599016451999</v>
+        <v>106.7823607417358</v>
       </c>
       <c r="AD2" t="n">
-        <v>74839.55924274716</v>
+        <v>86277.56419788001</v>
       </c>
       <c r="AE2" t="n">
-        <v>102398.7866442188</v>
+        <v>118048.7696329888</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.788886572651638e-06</v>
+        <v>1.317436525113709e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.360416666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>92625.99016451999</v>
+        <v>106782.3607417358</v>
       </c>
     </row>
     <row r="3">
@@ -9061,28 +9061,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>74.72242907432717</v>
+        <v>86.16043402946001</v>
       </c>
       <c r="AB3" t="n">
-        <v>102.2385239803684</v>
+        <v>117.8885069691383</v>
       </c>
       <c r="AC3" t="n">
-        <v>92.48102274437728</v>
+        <v>106.6373933215931</v>
       </c>
       <c r="AD3" t="n">
-        <v>74722.42907432717</v>
+        <v>86160.43402946001</v>
       </c>
       <c r="AE3" t="n">
-        <v>102238.5239803684</v>
+        <v>117888.5069691383</v>
       </c>
       <c r="AF3" t="n">
-        <v>6.815967645990563e-06</v>
+        <v>1.322691819155549e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.351041666666667</v>
       </c>
       <c r="AH3" t="n">
-        <v>92481.02274437729</v>
+        <v>106637.3933215931</v>
       </c>
     </row>
   </sheetData>
@@ -9358,28 +9358,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>73.59455488787783</v>
+        <v>85.49613424598155</v>
       </c>
       <c r="AB2" t="n">
-        <v>100.6953167601718</v>
+        <v>116.9795826985455</v>
       </c>
       <c r="AC2" t="n">
-        <v>91.08509705537088</v>
+        <v>105.8152155077022</v>
       </c>
       <c r="AD2" t="n">
-        <v>73594.55488787784</v>
+        <v>85496.13424598155</v>
       </c>
       <c r="AE2" t="n">
-        <v>100695.3167601718</v>
+        <v>116979.5826985455</v>
       </c>
       <c r="AF2" t="n">
-        <v>7.056941948553005e-06</v>
+        <v>1.32415910344929e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.188541666666667</v>
       </c>
       <c r="AH2" t="n">
-        <v>91085.09705537088</v>
+        <v>105815.2155077022</v>
       </c>
     </row>
     <row r="3">
@@ -9464,28 +9464,28 @@
         <v>10</v>
       </c>
       <c r="AA3" t="n">
-        <v>72.98550876982179</v>
+        <v>84.88708812792552</v>
       </c>
       <c r="AB3" t="n">
-        <v>99.86199299222956</v>
+        <v>116.1462589306033</v>
       </c>
       <c r="AC3" t="n">
-        <v>90.33130453826351</v>
+        <v>105.0614229905948</v>
       </c>
       <c r="AD3" t="n">
-        <v>72985.5087698218</v>
+        <v>84887.08812792553</v>
       </c>
       <c r="AE3" t="n">
-        <v>99861.99299222956</v>
+        <v>116146.2589306033</v>
       </c>
       <c r="AF3" t="n">
-        <v>7.126334074281516e-06</v>
+        <v>1.337179787998062e-05</v>
       </c>
       <c r="AG3" t="n">
-        <v>3</v>
+        <v>2.167708333333333</v>
       </c>
       <c r="AH3" t="n">
-        <v>90331.3045382635</v>
+        <v>105061.4229905948</v>
       </c>
     </row>
   </sheetData>
@@ -9761,28 +9761,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>288.7339588130019</v>
+        <v>325.2894793199149</v>
       </c>
       <c r="AB2" t="n">
-        <v>395.0585404912071</v>
+        <v>445.0754163645105</v>
       </c>
       <c r="AC2" t="n">
-        <v>357.3547078548696</v>
+        <v>402.598043293951</v>
       </c>
       <c r="AD2" t="n">
-        <v>288733.9588130019</v>
+        <v>325289.4793199149</v>
       </c>
       <c r="AE2" t="n">
-        <v>395058.5404912071</v>
+        <v>445075.4163645105</v>
       </c>
       <c r="AF2" t="n">
-        <v>2.436981126568171e-06</v>
+        <v>6.094704856190623e-06</v>
       </c>
       <c r="AG2" t="n">
-        <v>9</v>
+        <v>8.143750000000001</v>
       </c>
       <c r="AH2" t="n">
-        <v>357354.7078548695</v>
+        <v>402598.043293951</v>
       </c>
     </row>
   </sheetData>
@@ -10058,28 +10058,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>83.42586199410748</v>
+        <v>104.9684150882214</v>
       </c>
       <c r="AB2" t="n">
-        <v>114.1469448695671</v>
+        <v>143.6224164032863</v>
       </c>
       <c r="AC2" t="n">
-        <v>103.2529206574884</v>
+        <v>129.9152945571229</v>
       </c>
       <c r="AD2" t="n">
-        <v>83425.86199410747</v>
+        <v>104968.4150882214</v>
       </c>
       <c r="AE2" t="n">
-        <v>114146.9448695671</v>
+        <v>143622.4164032863</v>
       </c>
       <c r="AF2" t="n">
-        <v>5.962726876542755e-06</v>
+        <v>1.227894482214706e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.853125</v>
       </c>
       <c r="AH2" t="n">
-        <v>103252.9206574884</v>
+        <v>129915.2945571229</v>
       </c>
     </row>
   </sheetData>
@@ -10355,28 +10355,28 @@
         <v>10</v>
       </c>
       <c r="AA2" t="n">
-        <v>76.74773582088045</v>
+        <v>87.92379180363326</v>
       </c>
       <c r="AB2" t="n">
-        <v>105.0096380212288</v>
+        <v>120.3012108696156</v>
       </c>
       <c r="AC2" t="n">
-        <v>94.98766555046188</v>
+        <v>108.8198321480608</v>
       </c>
       <c r="AD2" t="n">
-        <v>76747.73582088045</v>
+        <v>87923.79180363327</v>
       </c>
       <c r="AE2" t="n">
-        <v>105009.6380212288</v>
+        <v>120301.2108696156</v>
       </c>
       <c r="AF2" t="n">
-        <v>6.550210116243937e-06</v>
+        <v>1.297717221114164e-05</v>
       </c>
       <c r="AG2" t="n">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AH2" t="n">
-        <v>94987.66555046188</v>
+        <v>108819.8321480608</v>
       </c>
     </row>
   </sheetData>
